--- a/Data/Topic Breakdown & Answer Key.xlsx
+++ b/Data/Topic Breakdown & Answer Key.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEYM_benchmark_analytics_2019\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevint24\Documents\Project\VEYM_benchmark_analytics_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B63D363-3DEF-45BB-98B8-E7402BA5B7FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14616" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21810" windowHeight="14610" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AN.C1" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,6 @@
     <sheet name="HS.C1" sheetId="12" r:id="rId10"/>
     <sheet name="HS.C2" sheetId="13" r:id="rId11"/>
     <sheet name="Altogether" sheetId="14" r:id="rId12"/>
-    <sheet name="Answer Keys" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="910">
   <si>
     <t>Question</t>
   </si>
@@ -2912,197 +2910,11 @@
   <si>
     <t>1 ~ 7</t>
   </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>AN.C1</t>
-  </si>
-  <si>
-    <t>AN.C2</t>
-  </si>
-  <si>
-    <t>AN.C3</t>
-  </si>
-  <si>
-    <t>TN.C1</t>
-  </si>
-  <si>
-    <t>TN.C2</t>
-  </si>
-  <si>
-    <t>TN.C3</t>
-  </si>
-  <si>
-    <t>NS.C1</t>
-  </si>
-  <si>
-    <t>NS.C2</t>
-  </si>
-  <si>
-    <t>NS.C3</t>
-  </si>
-  <si>
-    <t>HS.C1</t>
-  </si>
-  <si>
-    <t>HS.C2</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Q11</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
-    <t>Q15</t>
-  </si>
-  <si>
-    <t>Q16</t>
-  </si>
-  <si>
-    <t>Q17</t>
-  </si>
-  <si>
-    <t>Q18</t>
-  </si>
-  <si>
-    <t>Q19</t>
-  </si>
-  <si>
-    <t>Q20</t>
-  </si>
-  <si>
-    <t>Q21</t>
-  </si>
-  <si>
-    <t>Q22</t>
-  </si>
-  <si>
-    <t>Q23</t>
-  </si>
-  <si>
-    <t>Q24</t>
-  </si>
-  <si>
-    <t>Q25</t>
-  </si>
-  <si>
-    <t>Q26</t>
-  </si>
-  <si>
-    <t>Q27</t>
-  </si>
-  <si>
-    <t>Q28</t>
-  </si>
-  <si>
-    <t>Q29</t>
-  </si>
-  <si>
-    <t>Q30</t>
-  </si>
-  <si>
-    <t>Q31</t>
-  </si>
-  <si>
-    <t>Q32</t>
-  </si>
-  <si>
-    <t>Q33</t>
-  </si>
-  <si>
-    <t>Q34</t>
-  </si>
-  <si>
-    <t>Q35</t>
-  </si>
-  <si>
-    <t>Q36</t>
-  </si>
-  <si>
-    <t>Q37</t>
-  </si>
-  <si>
-    <t>Q38</t>
-  </si>
-  <si>
-    <t>Q39</t>
-  </si>
-  <si>
-    <t>Q40</t>
-  </si>
-  <si>
-    <t>Q41</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -3502,20 +3314,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="102" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4079,20 +3891,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4887,20 +4699,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5678,14 +5490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737F92BD-2C32-475F-AD90-746763E86400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="8" width="14" customWidth="1"/>
   </cols>
@@ -6480,1296 +6292,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DABB5FA-B04F-4ABA-83E3-7C9A7E5B7E96}">
-  <dimension ref="A1:AP12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AP1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:42">
-      <c r="A1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B1" t="s">
-        <v>931</v>
-      </c>
-      <c r="C1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D1" t="s">
-        <v>933</v>
-      </c>
-      <c r="E1" t="s">
-        <v>934</v>
-      </c>
-      <c r="F1" t="s">
-        <v>935</v>
-      </c>
-      <c r="G1" t="s">
-        <v>936</v>
-      </c>
-      <c r="H1" t="s">
-        <v>937</v>
-      </c>
-      <c r="I1" t="s">
-        <v>938</v>
-      </c>
-      <c r="J1" t="s">
-        <v>939</v>
-      </c>
-      <c r="K1" t="s">
-        <v>940</v>
-      </c>
-      <c r="L1" t="s">
-        <v>941</v>
-      </c>
-      <c r="M1" t="s">
-        <v>942</v>
-      </c>
-      <c r="N1" t="s">
-        <v>943</v>
-      </c>
-      <c r="O1" t="s">
-        <v>944</v>
-      </c>
-      <c r="P1" t="s">
-        <v>945</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>946</v>
-      </c>
-      <c r="R1" t="s">
-        <v>947</v>
-      </c>
-      <c r="S1" t="s">
-        <v>948</v>
-      </c>
-      <c r="T1" t="s">
-        <v>949</v>
-      </c>
-      <c r="U1" t="s">
-        <v>950</v>
-      </c>
-      <c r="V1" t="s">
-        <v>951</v>
-      </c>
-      <c r="W1" t="s">
-        <v>952</v>
-      </c>
-      <c r="X1" t="s">
-        <v>953</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>954</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>955</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>956</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>957</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>958</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>959</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>960</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>961</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>962</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>963</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>964</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>965</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>966</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>967</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>968</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>969</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>970</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" t="s">
-        <v>911</v>
-      </c>
-      <c r="B2" t="s">
-        <v>922</v>
-      </c>
-      <c r="C2" t="s">
-        <v>922</v>
-      </c>
-      <c r="D2" t="s">
-        <v>924</v>
-      </c>
-      <c r="E2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F2" t="s">
-        <v>922</v>
-      </c>
-      <c r="G2" t="s">
-        <v>925</v>
-      </c>
-      <c r="H2" t="s">
-        <v>925</v>
-      </c>
-      <c r="I2" t="s">
-        <v>924</v>
-      </c>
-      <c r="J2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K2" t="s">
-        <v>925</v>
-      </c>
-      <c r="L2" t="s">
-        <v>922</v>
-      </c>
-      <c r="M2" t="s">
-        <v>925</v>
-      </c>
-      <c r="N2" t="s">
-        <v>922</v>
-      </c>
-      <c r="O2" t="s">
-        <v>924</v>
-      </c>
-      <c r="P2" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>922</v>
-      </c>
-      <c r="R2" t="s">
-        <v>925</v>
-      </c>
-      <c r="S2" t="s">
-        <v>925</v>
-      </c>
-      <c r="T2" t="s">
-        <v>922</v>
-      </c>
-      <c r="U2" t="s">
-        <v>924</v>
-      </c>
-      <c r="V2" t="s">
-        <v>925</v>
-      </c>
-      <c r="W2" t="s">
-        <v>922</v>
-      </c>
-      <c r="X2" t="s">
-        <v>924</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>925</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
-      <c r="A3" t="s">
-        <v>912</v>
-      </c>
-      <c r="B3" t="s">
-        <v>922</v>
-      </c>
-      <c r="C3" t="s">
-        <v>924</v>
-      </c>
-      <c r="D3" t="s">
-        <v>925</v>
-      </c>
-      <c r="E3" t="s">
-        <v>924</v>
-      </c>
-      <c r="F3" t="s">
-        <v>922</v>
-      </c>
-      <c r="G3" t="s">
-        <v>924</v>
-      </c>
-      <c r="H3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I3" t="s">
-        <v>922</v>
-      </c>
-      <c r="J3" t="s">
-        <v>924</v>
-      </c>
-      <c r="K3" t="s">
-        <v>926</v>
-      </c>
-      <c r="L3" t="s">
-        <v>922</v>
-      </c>
-      <c r="M3" t="s">
-        <v>922</v>
-      </c>
-      <c r="N3" t="s">
-        <v>924</v>
-      </c>
-      <c r="O3" t="s">
-        <v>926</v>
-      </c>
-      <c r="P3" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>924</v>
-      </c>
-      <c r="R3" t="s">
-        <v>926</v>
-      </c>
-      <c r="S3" t="s">
-        <v>922</v>
-      </c>
-      <c r="T3" t="s">
-        <v>925</v>
-      </c>
-      <c r="U3" t="s">
-        <v>926</v>
-      </c>
-      <c r="V3" t="s">
-        <v>925</v>
-      </c>
-      <c r="W3" t="s">
-        <v>922</v>
-      </c>
-      <c r="X3" t="s">
-        <v>924</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>925</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>922</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>925</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>922</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" t="s">
-        <v>913</v>
-      </c>
-      <c r="B4" t="s">
-        <v>926</v>
-      </c>
-      <c r="C4" t="s">
-        <v>926</v>
-      </c>
-      <c r="D4" t="s">
-        <v>926</v>
-      </c>
-      <c r="E4" t="s">
-        <v>925</v>
-      </c>
-      <c r="F4" t="s">
-        <v>922</v>
-      </c>
-      <c r="G4" t="s">
-        <v>922</v>
-      </c>
-      <c r="H4" t="s">
-        <v>926</v>
-      </c>
-      <c r="I4" t="s">
-        <v>925</v>
-      </c>
-      <c r="J4" t="s">
-        <v>926</v>
-      </c>
-      <c r="K4" t="s">
-        <v>922</v>
-      </c>
-      <c r="L4" t="s">
-        <v>926</v>
-      </c>
-      <c r="M4" t="s">
-        <v>925</v>
-      </c>
-      <c r="N4" t="s">
-        <v>926</v>
-      </c>
-      <c r="O4" t="s">
-        <v>922</v>
-      </c>
-      <c r="P4" t="s">
-        <v>926</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>926</v>
-      </c>
-      <c r="R4" t="s">
-        <v>922</v>
-      </c>
-      <c r="S4" t="s">
-        <v>926</v>
-      </c>
-      <c r="T4" t="s">
-        <v>923</v>
-      </c>
-      <c r="U4" t="s">
-        <v>926</v>
-      </c>
-      <c r="V4" t="s">
-        <v>924</v>
-      </c>
-      <c r="W4" t="s">
-        <v>925</v>
-      </c>
-      <c r="X4" t="s">
-        <v>925</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>925</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>926</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>925</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>925</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>922</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="A5" t="s">
-        <v>914</v>
-      </c>
-      <c r="B5" t="s">
-        <v>922</v>
-      </c>
-      <c r="C5" t="s">
-        <v>922</v>
-      </c>
-      <c r="D5" t="s">
-        <v>924</v>
-      </c>
-      <c r="E5" t="s">
-        <v>924</v>
-      </c>
-      <c r="F5" t="s">
-        <v>926</v>
-      </c>
-      <c r="G5" t="s">
-        <v>929</v>
-      </c>
-      <c r="H5" t="s">
-        <v>925</v>
-      </c>
-      <c r="I5" t="s">
-        <v>926</v>
-      </c>
-      <c r="J5" t="s">
-        <v>925</v>
-      </c>
-      <c r="K5" t="s">
-        <v>924</v>
-      </c>
-      <c r="L5" t="s">
-        <v>925</v>
-      </c>
-      <c r="M5" t="s">
-        <v>926</v>
-      </c>
-      <c r="N5" t="s">
-        <v>922</v>
-      </c>
-      <c r="O5" t="s">
-        <v>925</v>
-      </c>
-      <c r="P5" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>925</v>
-      </c>
-      <c r="R5" t="s">
-        <v>922</v>
-      </c>
-      <c r="S5" t="s">
-        <v>925</v>
-      </c>
-      <c r="T5" t="s">
-        <v>922</v>
-      </c>
-      <c r="U5" t="s">
-        <v>925</v>
-      </c>
-      <c r="V5" t="s">
-        <v>927</v>
-      </c>
-      <c r="W5" t="s">
-        <v>922</v>
-      </c>
-      <c r="X5" t="s">
-        <v>924</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>925</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6" t="s">
-        <v>915</v>
-      </c>
-      <c r="B6" t="s">
-        <v>922</v>
-      </c>
-      <c r="C6" t="s">
-        <v>924</v>
-      </c>
-      <c r="D6" t="s">
-        <v>922</v>
-      </c>
-      <c r="E6" t="s">
-        <v>922</v>
-      </c>
-      <c r="F6" t="s">
-        <v>928</v>
-      </c>
-      <c r="G6" t="s">
-        <v>922</v>
-      </c>
-      <c r="H6" t="s">
-        <v>926</v>
-      </c>
-      <c r="I6" t="s">
-        <v>922</v>
-      </c>
-      <c r="J6" t="s">
-        <v>930</v>
-      </c>
-      <c r="K6" t="s">
-        <v>925</v>
-      </c>
-      <c r="L6" t="s">
-        <v>926</v>
-      </c>
-      <c r="M6" t="s">
-        <v>924</v>
-      </c>
-      <c r="N6" t="s">
-        <v>926</v>
-      </c>
-      <c r="O6" t="s">
-        <v>925</v>
-      </c>
-      <c r="P6" t="s">
-        <v>922</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>925</v>
-      </c>
-      <c r="R6" t="s">
-        <v>925</v>
-      </c>
-      <c r="S6" t="s">
-        <v>922</v>
-      </c>
-      <c r="T6" t="s">
-        <v>925</v>
-      </c>
-      <c r="U6" t="s">
-        <v>922</v>
-      </c>
-      <c r="V6" t="s">
-        <v>922</v>
-      </c>
-      <c r="W6" t="s">
-        <v>925</v>
-      </c>
-      <c r="X6" t="s">
-        <v>926</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>926</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" t="s">
-        <v>916</v>
-      </c>
-      <c r="B7" t="s">
-        <v>927</v>
-      </c>
-      <c r="C7" t="s">
-        <v>924</v>
-      </c>
-      <c r="D7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F7" t="s">
-        <v>928</v>
-      </c>
-      <c r="G7" t="s">
-        <v>922</v>
-      </c>
-      <c r="H7" t="s">
-        <v>926</v>
-      </c>
-      <c r="I7" t="s">
-        <v>928</v>
-      </c>
-      <c r="J7" t="s">
-        <v>924</v>
-      </c>
-      <c r="K7" t="s">
-        <v>929</v>
-      </c>
-      <c r="L7" t="s">
-        <v>925</v>
-      </c>
-      <c r="M7" t="s">
-        <v>925</v>
-      </c>
-      <c r="N7" t="s">
-        <v>926</v>
-      </c>
-      <c r="O7" t="s">
-        <v>922</v>
-      </c>
-      <c r="P7" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>924</v>
-      </c>
-      <c r="R7" t="s">
-        <v>926</v>
-      </c>
-      <c r="S7" t="s">
-        <v>922</v>
-      </c>
-      <c r="T7" t="s">
-        <v>922</v>
-      </c>
-      <c r="U7" t="s">
-        <v>925</v>
-      </c>
-      <c r="V7" t="s">
-        <v>922</v>
-      </c>
-      <c r="W7" t="s">
-        <v>925</v>
-      </c>
-      <c r="X7" t="s">
-        <v>926</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>926</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42">
-      <c r="A8" t="s">
-        <v>917</v>
-      </c>
-      <c r="B8" t="s">
-        <v>922</v>
-      </c>
-      <c r="C8" t="s">
-        <v>925</v>
-      </c>
-      <c r="D8" t="s">
-        <v>922</v>
-      </c>
-      <c r="E8" t="s">
-        <v>924</v>
-      </c>
-      <c r="F8" t="s">
-        <v>925</v>
-      </c>
-      <c r="G8" t="s">
-        <v>922</v>
-      </c>
-      <c r="H8" t="s">
-        <v>922</v>
-      </c>
-      <c r="I8" t="s">
-        <v>926</v>
-      </c>
-      <c r="J8" t="s">
-        <v>925</v>
-      </c>
-      <c r="K8" t="s">
-        <v>924</v>
-      </c>
-      <c r="L8" t="s">
-        <v>924</v>
-      </c>
-      <c r="M8" t="s">
-        <v>926</v>
-      </c>
-      <c r="N8" t="s">
-        <v>922</v>
-      </c>
-      <c r="O8" t="s">
-        <v>925</v>
-      </c>
-      <c r="P8" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>924</v>
-      </c>
-      <c r="R8" t="s">
-        <v>922</v>
-      </c>
-      <c r="S8" t="s">
-        <v>922</v>
-      </c>
-      <c r="T8" t="s">
-        <v>925</v>
-      </c>
-      <c r="U8" t="s">
-        <v>926</v>
-      </c>
-      <c r="V8" t="s">
-        <v>922</v>
-      </c>
-      <c r="W8" t="s">
-        <v>925</v>
-      </c>
-      <c r="X8" t="s">
-        <v>922</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>922</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>923</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>922</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>924</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>925</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>924</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>922</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>924</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>922</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>925</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>925</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>924</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>924</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>925</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>922</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>924</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="A9" t="s">
-        <v>918</v>
-      </c>
-      <c r="B9" t="s">
-        <v>922</v>
-      </c>
-      <c r="C9" t="s">
-        <v>925</v>
-      </c>
-      <c r="D9" t="s">
-        <v>922</v>
-      </c>
-      <c r="E9" t="s">
-        <v>924</v>
-      </c>
-      <c r="F9" t="s">
-        <v>922</v>
-      </c>
-      <c r="G9" t="s">
-        <v>925</v>
-      </c>
-      <c r="H9" t="s">
-        <v>923</v>
-      </c>
-      <c r="I9" t="s">
-        <v>924</v>
-      </c>
-      <c r="J9" t="s">
-        <v>922</v>
-      </c>
-      <c r="K9" t="s">
-        <v>924</v>
-      </c>
-      <c r="L9" t="s">
-        <v>925</v>
-      </c>
-      <c r="M9" t="s">
-        <v>922</v>
-      </c>
-      <c r="N9" t="s">
-        <v>925</v>
-      </c>
-      <c r="O9" t="s">
-        <v>922</v>
-      </c>
-      <c r="P9" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>926</v>
-      </c>
-      <c r="R9" t="s">
-        <v>925</v>
-      </c>
-      <c r="S9" t="s">
-        <v>926</v>
-      </c>
-      <c r="T9" t="s">
-        <v>922</v>
-      </c>
-      <c r="U9" t="s">
-        <v>925</v>
-      </c>
-      <c r="V9" t="s">
-        <v>926</v>
-      </c>
-      <c r="W9" t="s">
-        <v>925</v>
-      </c>
-      <c r="X9" t="s">
-        <v>922</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>922</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>924</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>926</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>922</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>926</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>924</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>925</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>925</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>924</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>926</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>922</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>924</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>922</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>924</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>924</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>922</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="A10" t="s">
-        <v>919</v>
-      </c>
-      <c r="B10" t="s">
-        <v>922</v>
-      </c>
-      <c r="C10" t="s">
-        <v>925</v>
-      </c>
-      <c r="D10" t="s">
-        <v>922</v>
-      </c>
-      <c r="E10" t="s">
-        <v>924</v>
-      </c>
-      <c r="F10" t="s">
-        <v>922</v>
-      </c>
-      <c r="G10" t="s">
-        <v>925</v>
-      </c>
-      <c r="H10" t="s">
-        <v>923</v>
-      </c>
-      <c r="I10" t="s">
-        <v>924</v>
-      </c>
-      <c r="J10" t="s">
-        <v>922</v>
-      </c>
-      <c r="K10" t="s">
-        <v>924</v>
-      </c>
-      <c r="L10" t="s">
-        <v>925</v>
-      </c>
-      <c r="M10" t="s">
-        <v>922</v>
-      </c>
-      <c r="N10" t="s">
-        <v>925</v>
-      </c>
-      <c r="O10" t="s">
-        <v>922</v>
-      </c>
-      <c r="P10" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>926</v>
-      </c>
-      <c r="R10" t="s">
-        <v>923</v>
-      </c>
-      <c r="S10" t="s">
-        <v>926</v>
-      </c>
-      <c r="T10" t="s">
-        <v>925</v>
-      </c>
-      <c r="U10" t="s">
-        <v>922</v>
-      </c>
-      <c r="V10" t="s">
-        <v>924</v>
-      </c>
-      <c r="W10" t="s">
-        <v>925</v>
-      </c>
-      <c r="X10" t="s">
-        <v>925</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>922</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>924</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>926</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>922</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>923</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>926</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>925</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>925</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>925</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>925</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>926</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>922</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>922</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>925</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>922</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42">
-      <c r="A11" t="s">
-        <v>920</v>
-      </c>
-      <c r="B11" t="s">
-        <v>922</v>
-      </c>
-      <c r="C11" t="s">
-        <v>922</v>
-      </c>
-      <c r="D11" t="s">
-        <v>923</v>
-      </c>
-      <c r="E11" t="s">
-        <v>924</v>
-      </c>
-      <c r="F11" t="s">
-        <v>925</v>
-      </c>
-      <c r="G11" t="s">
-        <v>922</v>
-      </c>
-      <c r="H11" t="s">
-        <v>922</v>
-      </c>
-      <c r="I11" t="s">
-        <v>926</v>
-      </c>
-      <c r="J11" t="s">
-        <v>922</v>
-      </c>
-      <c r="K11" t="s">
-        <v>925</v>
-      </c>
-      <c r="L11" t="s">
-        <v>924</v>
-      </c>
-      <c r="M11" t="s">
-        <v>922</v>
-      </c>
-      <c r="N11" t="s">
-        <v>922</v>
-      </c>
-      <c r="O11" t="s">
-        <v>924</v>
-      </c>
-      <c r="P11" t="s">
-        <v>922</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>925</v>
-      </c>
-      <c r="R11" t="s">
-        <v>922</v>
-      </c>
-      <c r="S11" t="s">
-        <v>926</v>
-      </c>
-      <c r="T11" t="s">
-        <v>922</v>
-      </c>
-      <c r="U11" t="s">
-        <v>925</v>
-      </c>
-      <c r="V11" t="s">
-        <v>922</v>
-      </c>
-      <c r="W11" t="s">
-        <v>924</v>
-      </c>
-      <c r="X11" t="s">
-        <v>923</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>925</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>922</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>922</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>923</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>924</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>922</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>925</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>924</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>924</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>923</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>922</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>922</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>926</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>924</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>922</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>926</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>924</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="A12" t="s">
-        <v>921</v>
-      </c>
-      <c r="B12" t="s">
-        <v>922</v>
-      </c>
-      <c r="C12" t="s">
-        <v>922</v>
-      </c>
-      <c r="D12" t="s">
-        <v>923</v>
-      </c>
-      <c r="E12" t="s">
-        <v>924</v>
-      </c>
-      <c r="F12" t="s">
-        <v>925</v>
-      </c>
-      <c r="G12" t="s">
-        <v>922</v>
-      </c>
-      <c r="H12" t="s">
-        <v>922</v>
-      </c>
-      <c r="I12" t="s">
-        <v>925</v>
-      </c>
-      <c r="J12" t="s">
-        <v>924</v>
-      </c>
-      <c r="K12" t="s">
-        <v>926</v>
-      </c>
-      <c r="L12" t="s">
-        <v>922</v>
-      </c>
-      <c r="M12" t="s">
-        <v>926</v>
-      </c>
-      <c r="N12" t="s">
-        <v>923</v>
-      </c>
-      <c r="O12" t="s">
-        <v>922</v>
-      </c>
-      <c r="P12" t="s">
-        <v>923</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>922</v>
-      </c>
-      <c r="R12" t="s">
-        <v>925</v>
-      </c>
-      <c r="S12" t="s">
-        <v>923</v>
-      </c>
-      <c r="T12" t="s">
-        <v>926</v>
-      </c>
-      <c r="U12" t="s">
-        <v>922</v>
-      </c>
-      <c r="V12" t="s">
-        <v>922</v>
-      </c>
-      <c r="W12" t="s">
-        <v>922</v>
-      </c>
-      <c r="X12" t="s">
-        <v>924</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>923</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>923</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>926</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>925</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>926</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>924</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>926</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>922</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>922</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>926</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>924</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>925</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>924</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>924</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>922</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>925</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>926</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8402,20 +6939,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9009,20 +7546,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9569,20 +8106,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10138,20 +8675,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10695,20 +9232,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11461,20 +9998,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12247,20 +10784,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13013,21 +11550,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BED1E90DA671F44597DF65CD4C9CA578" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6f39a1a3875e808026fe69efc0d87df">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24a8ed57-e9b8-4406-91f9-f867d8fb2148" xmlns:ns4="da8a4db2-b52b-4ccc-8e67-f2ee74f14b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7c481038bb7b2c4f8cbfc8440009392" ns3:_="" ns4:_="">
     <xsd:import namespace="24a8ed57-e9b8-4406-91f9-f867d8fb2148"/>
@@ -13250,10 +11772,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F88D7034-7F0E-4667-A37B-B9BE7CBC2686}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="24a8ed57-e9b8-4406-91f9-f867d8fb2148"/>
+    <ds:schemaRef ds:uri="da8a4db2-b52b-4ccc-8e67-f2ee74f14b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13276,20 +11824,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F88D7034-7F0E-4667-A37B-B9BE7CBC2686}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="24a8ed57-e9b8-4406-91f9-f867d8fb2148"/>
-    <ds:schemaRef ds:uri="da8a4db2-b52b-4ccc-8e67-f2ee74f14b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Topic Breakdown & Answer Key.xlsx
+++ b/Data/Topic Breakdown & Answer Key.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21810" windowHeight="14610" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21810" windowHeight="14610" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AN.C1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="HS.C2" sheetId="13" r:id="rId11"/>
     <sheet name="Altogether" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="909">
   <si>
     <t>Question</t>
   </si>
@@ -2845,21 +2845,6 @@
     <t>NS.C1 Amount</t>
   </si>
   <si>
-    <t>1 ~ 14</t>
-  </si>
-  <si>
-    <t>15 ~ 26</t>
-  </si>
-  <si>
-    <t>27 ~ 32</t>
-  </si>
-  <si>
-    <t>33 ~ 35</t>
-  </si>
-  <si>
-    <t>36 ~ 39</t>
-  </si>
-  <si>
     <t>40 ~ 42</t>
   </si>
   <si>
@@ -2909,13 +2894,25 @@
   </si>
   <si>
     <t>1 ~ 7</t>
+  </si>
+  <si>
+    <t>14 ~ 25</t>
+  </si>
+  <si>
+    <t>26 ~ 31</t>
+  </si>
+  <si>
+    <t>32 ~ 34</t>
+  </si>
+  <si>
+    <t>35 ~ 38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3321,7 +3318,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -3331,7 +3328,7 @@
     <col min="6" max="6" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3351,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3365,7 +3362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3393,7 +3390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3407,7 +3404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3449,7 +3446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3469,7 +3466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3489,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3509,7 +3506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3529,7 +3526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3549,7 +3546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3589,7 +3586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3609,7 +3606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3649,7 +3646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3669,7 +3666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3689,7 +3686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3709,7 +3706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3729,7 +3726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3749,7 +3746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3809,77 +3806,77 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3898,7 +3895,7 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -3908,7 +3905,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3940,7 +3937,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3951,7 +3948,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3973,7 +3970,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3984,7 +3981,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3995,7 +3992,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4015,7 +4012,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4055,7 +4052,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4095,7 +4092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4115,7 +4112,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4135,7 +4132,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4155,7 +4152,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4175,7 +4172,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4215,7 +4212,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4255,7 +4252,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4275,7 +4272,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4295,7 +4292,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4315,7 +4312,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4335,7 +4332,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4375,7 +4372,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4395,7 +4392,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4415,7 +4412,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4435,7 +4432,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4455,7 +4452,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4475,7 +4472,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4495,7 +4492,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4515,7 +4512,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4535,7 +4532,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4572,7 +4569,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4592,7 +4589,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4612,7 +4609,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4632,7 +4629,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4652,7 +4649,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4672,7 +4669,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4706,7 +4703,7 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -4716,7 +4713,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4736,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4748,7 +4745,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4759,7 +4756,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4770,7 +4767,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4781,7 +4778,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4792,7 +4789,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4823,7 +4820,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4843,7 +4840,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4863,7 +4860,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4883,7 +4880,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4903,7 +4900,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4923,7 +4920,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4943,7 +4940,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4963,7 +4960,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4983,7 +4980,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5003,7 +5000,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5023,7 +5020,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5043,7 +5040,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5063,7 +5060,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5083,7 +5080,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5103,7 +5100,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5143,7 +5140,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5203,7 +5200,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5223,7 +5220,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5243,7 +5240,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5263,7 +5260,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5283,7 +5280,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5303,7 +5300,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5323,7 +5320,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5343,7 +5340,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5363,7 +5360,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5383,7 +5380,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5423,7 +5420,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5443,7 +5440,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5463,7 +5460,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5494,15 +5491,15 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>827</v>
       </c>
@@ -5525,18 +5522,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>828</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>849</v>
       </c>
       <c r="D2" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E2" t="s">
         <v>853</v>
@@ -5548,7 +5545,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>850</v>
       </c>
@@ -5575,7 +5572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>829</v>
       </c>
@@ -5598,7 +5595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>830</v>
       </c>
@@ -5621,7 +5618,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>857</v>
       </c>
@@ -5648,7 +5645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>831</v>
       </c>
@@ -5671,7 +5668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>832</v>
       </c>
@@ -5694,7 +5691,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>864</v>
       </c>
@@ -5721,7 +5718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>833</v>
       </c>
@@ -5744,7 +5741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>835</v>
       </c>
@@ -5767,7 +5764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>870</v>
       </c>
@@ -5794,7 +5791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>836</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>834</v>
       </c>
@@ -5840,7 +5837,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>876</v>
       </c>
@@ -5867,7 +5864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>837</v>
       </c>
@@ -5890,7 +5887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>838</v>
       </c>
@@ -5913,7 +5910,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>880</v>
       </c>
@@ -5940,7 +5937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>839</v>
       </c>
@@ -5963,7 +5960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>840</v>
       </c>
@@ -5986,7 +5983,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>887</v>
       </c>
@@ -6013,7 +6010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>841</v>
       </c>
@@ -6036,35 +6033,35 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>842</v>
       </c>
       <c r="B23" t="s">
+        <v>881</v>
+      </c>
+      <c r="C23" t="s">
+        <v>905</v>
+      </c>
+      <c r="D23" t="s">
+        <v>906</v>
+      </c>
+      <c r="E23" t="s">
+        <v>907</v>
+      </c>
+      <c r="F23" t="s">
+        <v>908</v>
+      </c>
+      <c r="G23" t="s">
         <v>888</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>889</v>
       </c>
-      <c r="D23" t="s">
-        <v>890</v>
-      </c>
-      <c r="E23" t="s">
-        <v>891</v>
-      </c>
-      <c r="F23" t="s">
-        <v>892</v>
-      </c>
-      <c r="G23" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>894</v>
-      </c>
       <c r="B24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -6083,10 +6080,10 @@
       </c>
       <c r="H24">
         <f>SUM(B24:G24)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>843</v>
       </c>
@@ -6109,7 +6106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>844</v>
       </c>
@@ -6123,18 +6120,18 @@
         <v>883</v>
       </c>
       <c r="E26" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F26" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G26" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -6159,7 +6156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>845</v>
       </c>
@@ -6179,29 +6176,29 @@
         <v>764</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>846</v>
       </c>
       <c r="B29" t="s">
+        <v>893</v>
+      </c>
+      <c r="C29" t="s">
+        <v>894</v>
+      </c>
+      <c r="D29" t="s">
+        <v>895</v>
+      </c>
+      <c r="E29" t="s">
+        <v>896</v>
+      </c>
+      <c r="F29" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>898</v>
-      </c>
-      <c r="C29" t="s">
-        <v>899</v>
-      </c>
-      <c r="D29" t="s">
-        <v>900</v>
-      </c>
-      <c r="E29" t="s">
-        <v>901</v>
-      </c>
-      <c r="F29" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>903</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -6223,7 +6220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>847</v>
       </c>
@@ -6243,29 +6240,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>848</v>
       </c>
       <c r="B32" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C32" t="s">
+        <v>894</v>
+      </c>
+      <c r="D32" t="s">
         <v>899</v>
       </c>
-      <c r="D32" t="s">
-        <v>904</v>
-      </c>
       <c r="E32" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F32" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -6300,7 +6297,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -6310,7 +6307,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6330,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6344,7 +6341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6358,7 +6355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6372,7 +6369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6386,7 +6383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6400,7 +6397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6414,7 +6411,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6428,7 +6425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6442,7 +6439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6462,7 +6459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6482,7 +6479,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6522,7 +6519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6542,7 +6539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6562,7 +6559,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6582,7 +6579,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6602,7 +6599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6622,7 +6619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6662,7 +6659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6682,7 +6679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6702,7 +6699,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6722,7 +6719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6742,7 +6739,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6762,7 +6759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6782,7 +6779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6802,7 +6799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6822,7 +6819,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6842,7 +6839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6862,7 +6859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6882,52 +6879,52 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6946,7 +6943,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -6956,7 +6953,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6976,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6990,7 +6987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7004,7 +7001,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7018,7 +7015,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7032,7 +7029,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7046,7 +7043,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7060,7 +7057,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7074,7 +7071,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7088,7 +7085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7102,7 +7099,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7116,7 +7113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7130,7 +7127,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7144,7 +7141,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7164,7 +7161,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7184,7 +7181,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7204,7 +7201,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7224,7 +7221,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7244,7 +7241,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7264,7 +7261,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7284,7 +7281,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7304,7 +7301,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7324,7 +7321,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7344,7 +7341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7364,7 +7361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7384,7 +7381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7404,7 +7401,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7424,7 +7421,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7444,7 +7441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7464,7 +7461,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7484,57 +7481,57 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7553,7 +7550,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -7563,7 +7560,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7583,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7595,7 +7592,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7606,7 +7603,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7617,7 +7614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7628,7 +7625,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7648,7 +7645,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7668,7 +7665,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7688,7 +7685,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7708,7 +7705,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7728,7 +7725,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7742,7 +7739,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7756,7 +7753,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7770,7 +7767,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7784,7 +7781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7804,7 +7801,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7824,7 +7821,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7844,7 +7841,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7864,7 +7861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7884,7 +7881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7904,7 +7901,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7924,7 +7921,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7944,7 +7941,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7964,7 +7961,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7984,7 +7981,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8004,7 +8001,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8024,77 +8021,77 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8113,7 +8110,7 @@
       <selection activeCell="D25" sqref="D25:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -8123,7 +8120,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8143,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8155,7 +8152,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8166,7 +8163,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8177,7 +8174,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8188,7 +8185,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8199,7 +8196,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8219,7 +8216,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8239,7 +8236,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8279,7 +8276,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8293,7 +8290,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8313,7 +8310,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8333,7 +8330,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8353,7 +8350,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8373,7 +8370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8393,7 +8390,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8413,7 +8410,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8433,7 +8430,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8453,7 +8450,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8473,7 +8470,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8493,7 +8490,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8513,7 +8510,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8533,7 +8530,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8553,7 +8550,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8573,7 +8570,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8593,77 +8590,77 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8682,7 +8679,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -8692,7 +8689,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8712,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8724,7 +8721,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8735,7 +8732,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8746,7 +8743,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8757,7 +8754,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8768,7 +8765,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8788,7 +8785,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8808,7 +8805,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8828,7 +8825,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8848,7 +8845,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8868,7 +8865,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8888,7 +8885,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8908,7 +8905,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8928,7 +8925,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8942,7 +8939,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8956,7 +8953,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8970,7 +8967,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8990,7 +8987,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9010,7 +9007,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9030,7 +9027,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9050,7 +9047,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9070,7 +9067,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9090,7 +9087,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9110,7 +9107,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9130,7 +9127,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9150,77 +9147,77 @@
         <v>474</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9236,10 +9233,10 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A43" sqref="A43:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -9249,7 +9246,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9269,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9283,7 +9280,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9297,7 +9294,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9311,7 +9308,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9325,7 +9322,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9339,7 +9336,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9353,7 +9350,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9367,7 +9364,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9381,7 +9378,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9395,7 +9392,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9409,7 +9406,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9423,7 +9420,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9437,7 +9434,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9451,7 +9448,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9471,7 +9468,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9491,7 +9488,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9511,7 +9508,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9531,7 +9528,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9551,7 +9548,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9571,7 +9568,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9591,7 +9588,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9611,7 +9608,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9631,7 +9628,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9651,7 +9648,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9671,7 +9668,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9691,7 +9688,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9711,7 +9708,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9731,7 +9728,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9751,7 +9748,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9771,7 +9768,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9791,7 +9788,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9811,7 +9808,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9831,7 +9828,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9851,7 +9848,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9871,7 +9868,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9891,7 +9888,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9911,7 +9908,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9931,7 +9928,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9951,7 +9948,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9971,7 +9968,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10001,11 +9998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I47" sqref="B45:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -10015,7 +10012,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10035,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10049,7 +10046,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10063,7 +10060,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10077,7 +10074,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10091,7 +10088,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10105,7 +10102,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10119,7 +10116,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10133,7 +10130,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10147,7 +10144,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10161,7 +10158,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10175,7 +10172,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10189,7 +10186,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10203,7 +10200,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10217,7 +10214,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10237,7 +10234,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10257,7 +10254,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10277,7 +10274,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10297,7 +10294,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10317,7 +10314,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10337,7 +10334,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10357,7 +10354,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10377,7 +10374,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10397,7 +10394,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10417,7 +10414,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10437,7 +10434,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10457,7 +10454,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10477,7 +10474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10497,7 +10494,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10517,7 +10514,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10537,7 +10534,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10557,7 +10554,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10577,7 +10574,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10597,7 +10594,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10617,7 +10614,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10637,7 +10634,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10657,7 +10654,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10677,7 +10674,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10697,7 +10694,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -10717,7 +10714,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -10737,7 +10734,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10757,7 +10754,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -10791,7 +10788,7 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -10801,7 +10798,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10821,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10835,7 +10832,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10849,7 +10846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10863,7 +10860,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10877,7 +10874,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10891,7 +10888,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10905,7 +10902,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10919,7 +10916,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10933,7 +10930,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10947,7 +10944,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10961,7 +10958,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10975,7 +10972,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10989,7 +10986,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -11003,7 +11000,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -11023,7 +11020,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -11043,7 +11040,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11063,7 +11060,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -11083,7 +11080,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -11103,7 +11100,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -11123,7 +11120,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11143,7 +11140,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -11163,7 +11160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -11183,7 +11180,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -11203,7 +11200,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -11223,7 +11220,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -11243,7 +11240,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -11263,7 +11260,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -11283,7 +11280,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -11303,7 +11300,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -11323,7 +11320,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -11343,7 +11340,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11363,7 +11360,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11383,7 +11380,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11403,7 +11400,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11423,7 +11420,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11443,7 +11440,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11463,7 +11460,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11483,7 +11480,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11503,7 +11500,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -11523,7 +11520,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -11773,18 +11770,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11807,6 +11804,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C4CB42B-A03C-41C2-8A4E-CFAC77CE140C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="da8a4db2-b52b-4ccc-8e67-f2ee74f14b89"/>
@@ -11821,12 +11826,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>